--- a/mcmaster_excel/Steel_Pan_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Steel_Pan_Head_Torx_Screws.xlsx
@@ -434,206 +434,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.167"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.063"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>40,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>90022A088</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$14.57</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.063"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>90022A090</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14.78</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +596,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90022A094</t>
+          <t>90022A088</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>$14.57</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +663,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90022A096</t>
+          <t>90022A090</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -777,12 +695,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -792,17 +710,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -812,17 +730,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90022A110</t>
+          <t>90022A094</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -834,7 +752,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +762,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -859,17 +777,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -879,17 +797,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>90022A112</t>
+          <t>90022A096</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -901,7 +819,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,12 +864,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90022A114</t>
+          <t>90022A110</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +886,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -998,7 +916,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1013,12 +931,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>90022A116</t>
+          <t>90022A112</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +953,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1045,12 +963,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1060,7 +978,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1080,17 +998,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>90022A142</t>
+          <t>90022A114</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1102,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1112,12 +1030,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1127,12 +1045,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1147,17 +1065,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>90022A145</t>
+          <t>90022A116</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1169,7 +1087,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1199,7 +1117,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1214,12 +1132,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90022A148</t>
+          <t>90022A142</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1236,7 +1154,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1266,7 +1184,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1281,12 +1199,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>90022A151</t>
+          <t>90022A145</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1221,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1313,12 +1231,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1328,7 +1246,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1348,17 +1266,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>90022A180</t>
+          <t>90022A148</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1370,7 +1288,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1380,12 +1298,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1395,7 +1313,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1415,17 +1333,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>90022A185</t>
+          <t>90022A151</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1437,7 +1355,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1400,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90022A188</t>
+          <t>90022A180</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1422,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1467,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>90022A191</t>
+          <t>90022A185</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1489,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1581,12 +1499,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1596,7 +1514,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1616,17 +1534,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>90022A240</t>
+          <t>90022A188</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1638,7 +1556,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1648,12 +1566,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1663,7 +1581,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1683,17 +1601,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>90022A242</t>
+          <t>90022A191</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1705,7 +1623,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1668,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90022A245</t>
+          <t>90022A240</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1690,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1812,17 +1730,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>90022A247</t>
+          <t>90022A242</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1757,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,17 +1802,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>90022A264</t>
+          <t>90022A245</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1906,7 +1824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1946,22 +1864,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>90022A267</t>
+          <t>90022A247</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1973,7 +1891,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1936,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90022A269</t>
+          <t>90022A264</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +1958,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2080,17 +1998,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>90022A271</t>
+          <t>90022A267</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,19 +2025,59 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00-90</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.133"</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>90022A269</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>10-32</t>
@@ -2127,14 +2085,14 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Black Corrosion-Resistant-Coated Steel</t>
+          <t>Zinc-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2144,22 +2102,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.090"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.036"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IP2, T2</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2169,7 +2127,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2179,12 +2137,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>93701A001</t>
+          <t>90022A271</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2194,14 +2152,14 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Black Corrosion-Resistant-Coated Steel</t>
+          <t>Zinc-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2246,17 +2204,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>93701A003</t>
+          <t>93701A001</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>00-90</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2268,7 +2226,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2313,17 +2271,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>93701A005</t>
+          <t>93701A003</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>18.56</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>00-90</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2335,22 +2293,62 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.090"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.036"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>IP2, T2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>93701A005</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>00-90</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2417,7 +2415,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2484,7 +2482,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2551,7 +2549,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
